--- a/Compiladores/220. Ejemplo Prefix Posfix/220. Stack.xlsx
+++ b/Compiladores/220. Ejemplo Prefix Posfix/220. Stack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Compiladores\220. Ejemplo Prefix Posfix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D9967-D0C6-4543-9058-E49C2E38BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404B9C2-7D86-4104-A657-3B1D62605E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A68BA59D-E010-4EFD-91AE-6DC2F9091F95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A68BA59D-E010-4EFD-91AE-6DC2F9091F95}"/>
   </bookViews>
   <sheets>
     <sheet name="1)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t xml:space="preserve"> 1*3/(1+2)</t>
   </si>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,9 +269,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -303,8 +300,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -319,8 +316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1644650" y="12700"/>
-          <a:ext cx="6553200" cy="2743200"/>
+          <a:off x="1685290" y="12700"/>
+          <a:ext cx="6797040" cy="2745740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1071,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071412DF-6AFF-4AEF-8C82-851CAC07C23F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
@@ -1393,60 +1390,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F820D89-C134-46A6-B5C1-5C63B92E790B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I6" s="12">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I8" s="12">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1455,8 +1482,14 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
@@ -1466,14 +1499,26 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
@@ -1482,8 +1527,11 @@
       <c r="C12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I12" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -1493,8 +1541,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1508,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>23</v>
       </c>
